--- a/exampleTeams.xlsx
+++ b/exampleTeams.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -211,16 +211,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -250,7 +242,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -792,6 +785,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -804,6 +798,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
